--- a/EmptyFiles/Imienne_Rozliczenie_Bojowe.xlsx
+++ b/EmptyFiles/Imienne_Rozliczenie_Bojowe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pliki_D\codes\python\BudynIRB\EmptyFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pliki_D\codes\python\BudynIRBv07Alfa\EmptyFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373A7E59-F779-4EFC-94D2-0640E7530783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5575393E-6BB8-4098-8DC8-0F016D902899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22710" yWindow="1035" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26745" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>39 Kompania</t>
   </si>
@@ -87,6 +87,30 @@
   </si>
   <si>
     <t>Sł</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>kpr.</t>
+  </si>
+  <si>
+    <t>Osoba2</t>
+  </si>
+  <si>
+    <t>Nieobecny</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>st.szer.</t>
+  </si>
+  <si>
+    <t>Osoba3</t>
+  </si>
+  <si>
+    <t>Obecny</t>
   </si>
 </sst>
 </file>
@@ -423,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +507,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D41" si="0">IF(E3="","Obecny", "Nieobecny")</f>
+        <f t="shared" ref="D3" si="0">IF(E3="","Obecny", "Nieobecny")</f>
         <v>Obecny</v>
       </c>
       <c r="G3" t="s">
@@ -512,6 +536,21 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
       <c r="G4">
         <v>1</v>
       </c>
@@ -542,6 +581,20 @@
       <c r="N4">
         <f>COUNTIF(E3:E3,"Sł")</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
